--- a/351-SD-HéritageTDDUIPatientINS/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/351-SD-HéritageTDDUIPatientINS/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T14:12:27+00:00</t>
+    <t>2025-09-09T14:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
